--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -12,12 +12,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Oracle)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Oracle)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$76</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="291">
   <si>
     <t>共通設定</t>
   </si>
@@ -748,13 +752,473 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* Oracleデータベースの構成情報を採取します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* .\template\Oracle が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Oracle\Oracle設定チェックシート.xlsx」(本ファイル)を開きます。</t>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Oracle を指定します。</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベース名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベースの接続IPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Oracle を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベースのインスタンス名を入力します。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象データベース名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定ユーザ</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のユーザ入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したユーザを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定ポート</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のポート入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したポートを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ora11</t>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+  </si>
+  <si>
+    <t>orcl</t>
+  </si>
+  <si>
+    <t>ora12</t>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\Oracle\config_oracle.groovy</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>// Oracle接続情報</t>
+  </si>
+  <si>
+    <t>account.Oracle.Test.user     = 'zabbix'</t>
+  </si>
+  <si>
+    <t>account.Oracle.Test.password = 'zabbix'</t>
+  </si>
+  <si>
+    <t>account.Oracle.Test.port     = 1521</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -803,8 +1267,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,8 +1306,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -911,16 +1388,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,10 +1575,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1293,9 +1939,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
+    <col min="4" max="5" width="13.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
+    <col min="8" max="9" width="13.125" style="19" customWidth="1"/>
+    <col min="10" max="11" width="14" style="19" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="19" customWidth="1"/>
+    <col min="13" max="1021" width="8.75" style="19" customWidth="1"/>
+    <col min="1022" max="1023" width="11.625" style="19" customWidth="1"/>
+    <col min="1024" max="1028" width="8.75" style="19" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C17" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C18" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C19" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C20" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C21" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C22" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C23" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C24" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C25" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="22">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B33" s="22">
+        <v>2</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B34" s="22">
+        <v>3</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B35" s="22">
+        <v>4</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B36" s="22">
+        <v>5</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B37" s="22">
+        <v>6</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B38" s="22">
+        <v>7</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B39" s="22">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="22">
+        <v>9</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B41" s="22">
+        <v>10</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B45" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C47" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C51" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="31"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C53" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="31"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C54" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="31"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C55" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="34"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B59" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C61" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="25"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C67" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="25"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C72" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C76" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C29:L29"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1719,7 +2994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM15"/>
   <sheetViews>
@@ -2075,7 +3350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -2167,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK85"/>
   <sheetViews>
@@ -3461,7 +4736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>

--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -1275,7 +1275,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,6 +1310,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1517,7 +1523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1572,19 +1578,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1">
@@ -1621,6 +1615,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1942,615 +1951,1518 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
-    <col min="8" max="9" width="13.125" style="19" customWidth="1"/>
-    <col min="10" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="19" customWidth="1"/>
-    <col min="13" max="1021" width="8.75" style="19" customWidth="1"/>
-    <col min="1022" max="1023" width="11.625" style="19" customWidth="1"/>
-    <col min="1024" max="1028" width="8.75" style="19" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="19"/>
+    <col min="1" max="2" width="3.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
+    <col min="4" max="5" width="13.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
+    <col min="8" max="9" width="13.125" style="18" customWidth="1"/>
+    <col min="10" max="11" width="14" style="18" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="18" customWidth="1"/>
+    <col min="13" max="1021" width="8.75" style="18" customWidth="1"/>
+    <col min="1022" max="1023" width="11.625" style="18" customWidth="1"/>
+    <col min="1024" max="1028" width="8.75" style="18" customWidth="1"/>
+    <col min="1029" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="19" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="19" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="32" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="19" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="19" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="32" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C17" s="19" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="32" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C18" s="19" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C19" s="19" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="32" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C20" s="19" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="32" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C21" s="19" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="32" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C22" s="19" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="32" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C23" s="19" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="32" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C24" s="19" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="32" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C25" s="19" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="32" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="19" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="20" t="s">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="22">
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="35">
         <v>1</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="22">
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
+      <c r="B33" s="35">
         <v>2</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="G33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="22">
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="35">
         <v>3</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="22">
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35">
         <v>4</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="22">
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="35">
         <v>5</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="22">
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="35">
         <v>6</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="22">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="35">
         <v>7</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="22">
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="35">
         <v>8</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="22">
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="32"/>
+      <c r="B40" s="35">
         <v>9</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="22">
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="35">
         <v>10</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="32" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="19" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C47" s="23" t="s">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B49" s="19" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="32"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C51" s="26" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="28"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="31"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C53" s="29" t="s">
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="32"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="32"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="31"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C54" s="29" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="32"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="31"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C55" s="32" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="32"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="34"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="19" t="s">
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="32"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="32" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B59" s="19" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C61" s="23" t="s">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="25"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="19" t="s">
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="32"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="32" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" s="19" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C67" s="23" t="s">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" s="19" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="32"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="19" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="23" t="s">
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="25"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="19" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="32"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="32"/>
+      <c r="B74" s="32" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C76" s="23" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="25"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="32"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2591,18 +3503,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>

--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="294">
   <si>
     <t>共通設定</t>
   </si>
@@ -106,7 +106,22 @@
     <t>Oracle</t>
   </si>
   <si>
+    <t>ora11</t>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+  </si>
+  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>orcl</t>
+  </si>
+  <si>
+    <t>ora12</t>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
   </si>
   <si>
     <t>No</t>
@@ -758,11 +773,154 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>* Oracleデータベースの構成情報を採取します。</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>* .\template\Oracle が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -776,19 +934,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>2. 検査シート編集</t>
-  </si>
-  <si>
     <t>「.\template\Oracle\Oracle設定チェックシート.xlsx」(本ファイル)を開きます。</t>
     <rPh sb="25" eb="27">
       <t>セッテイ</t>
@@ -796,9 +941,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
     <t>検査するシナリオID Oracle を指定します。</t>
     <rPh sb="19" eb="21">
       <t>シテイ</t>
@@ -806,9 +948,31 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>対象サーバ</t>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Oracle を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベースのインスタンス名を入力します。</t>
     <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -835,7 +999,77 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>IPアドレス</t>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象データベース名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -849,95 +1083,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Oracle を指定します。</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>検査対象データベースのインスタンス名を入力します。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象データベース名を指定します。</t>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>特定ユーザ</t>
     <rPh sb="0" eb="2">
       <t>トクテイ</t>
@@ -994,62 +1139,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>特定パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(オプション) 接続時のパスワード入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
-    <rPh sb="8" eb="10">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>特定ポート</t>
     <rPh sb="0" eb="2">
       <t>トクテイ</t>
@@ -1106,47 +1195,9 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ora11</t>
-  </si>
-  <si>
-    <t>192.168.0.11</t>
-  </si>
-  <si>
-    <t>orcl</t>
-  </si>
-  <si>
-    <t>ora12</t>
-  </si>
-  <si>
-    <t>192.168.0.16</t>
-  </si>
-  <si>
-    <t>3. 設定ファイル(config.groovy)編集</t>
-  </si>
-  <si>
-    <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
     <t>notepad++ .\template\Oracle\config_oracle.groovy</t>
   </si>
   <si>
-    <t>以下の各検査対象の接続情報を編集します。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>// Oracle接続情報</t>
   </si>
   <si>
@@ -1157,60 +1208,24 @@
   </si>
   <si>
     <t>account.Oracle.Test.port     = 1521</t>
-  </si>
-  <si>
-    <t>4. Getconfig インベントリ収集実行</t>
-  </si>
-  <si>
-    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>5. 実行結果の参照とコミット</t>
-  </si>
-  <si>
-    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>dir .\build</t>
-  </si>
-  <si>
-    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
-  </si>
-  <si>
-    <t>getconfig -u local</t>
-  </si>
-  <si>
-    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択テンプレート</t>
     <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッコウ</t>
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
+    <t>Oracle</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1218,7 +1233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1263,13 +1278,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1512,18 +1520,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,65 +1583,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1951,1518 +1952,1530 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
-    <col min="8" max="9" width="13.125" style="18" customWidth="1"/>
-    <col min="10" max="11" width="14" style="18" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="18" customWidth="1"/>
-    <col min="13" max="1021" width="8.75" style="18" customWidth="1"/>
-    <col min="1022" max="1023" width="11.625" style="18" customWidth="1"/>
-    <col min="1024" max="1028" width="8.75" style="18" customWidth="1"/>
-    <col min="1029" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="1021" width="8.75" customWidth="1"/>
+    <col min="1022" max="1023" width="11.625" customWidth="1"/>
+    <col min="1024" max="1028" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="A2" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="A7" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D18" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
+      <c r="D20" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D21" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
+      <c r="D22" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D24" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="30"/>
+      <c r="B32" s="32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32">
+        <v>2</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="30"/>
+      <c r="B34" s="32">
+        <v>3</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="30"/>
+      <c r="B35" s="32">
+        <v>4</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="30"/>
+      <c r="B36" s="32">
+        <v>5</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="30"/>
+      <c r="B37" s="32">
+        <v>6</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="30"/>
+      <c r="B38" s="32">
+        <v>7</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="30"/>
+      <c r="B39" s="32">
+        <v>8</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="30"/>
+      <c r="B40" s="32">
+        <v>9</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="30"/>
+      <c r="B41" s="32">
+        <v>10</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="30"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="30"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="30"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="30"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="30"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32" t="s">
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="30"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32" t="s">
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35">
-        <v>1</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="30"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35">
-        <v>2</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="35">
-        <v>3</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35">
-        <v>4</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35">
-        <v>5</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35">
-        <v>6</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="35">
-        <v>7</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="35">
-        <v>8</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
-      <c r="B40" s="35">
-        <v>9</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
-      <c r="B41" s="35">
-        <v>10</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="32"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="32"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="32"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="32"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="32"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="32"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="32"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="32"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="32"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="32"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="32"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3482,9 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3503,18 +3514,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -3896,6 +3907,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$80:$C$81</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1533505064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3964,57 +3985,57 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4029,52 +4050,52 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -4282,33 +4303,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4401,340 +4422,340 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="F6" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
@@ -4742,13 +4763,13 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
@@ -4756,13 +4777,13 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -4770,13 +4791,13 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
@@ -4784,13 +4805,13 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
@@ -4798,13 +4819,13 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
@@ -4812,13 +4833,13 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
@@ -4826,13 +4847,13 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
@@ -4840,13 +4861,13 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
@@ -4854,13 +4875,13 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
@@ -4868,13 +4889,13 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
@@ -4882,13 +4903,13 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -4896,13 +4917,13 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -4910,13 +4931,13 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
@@ -4924,13 +4945,13 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
@@ -4938,13 +4959,13 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
@@ -4952,13 +4973,13 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
@@ -4966,13 +4987,13 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
@@ -4980,13 +5001,13 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
@@ -4994,25 +5015,25 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
@@ -5020,13 +5041,13 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
@@ -5034,13 +5055,13 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
@@ -5048,13 +5069,13 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
@@ -5062,13 +5083,13 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
@@ -5076,25 +5097,25 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
@@ -5102,13 +5123,13 @@
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
@@ -5116,13 +5137,13 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
@@ -5130,13 +5151,13 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
@@ -5144,13 +5165,13 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
@@ -5158,25 +5179,25 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
@@ -5184,13 +5205,13 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
@@ -5198,13 +5219,13 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
@@ -5212,13 +5233,13 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -5226,13 +5247,13 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -5240,13 +5261,13 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
@@ -5254,13 +5275,13 @@
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
@@ -5268,13 +5289,13 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -5282,13 +5303,13 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
@@ -5296,13 +5317,13 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
@@ -5310,13 +5331,13 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
@@ -5324,25 +5345,25 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
@@ -5350,13 +5371,13 @@
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
@@ -5364,13 +5385,13 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8" t="s">
@@ -5378,13 +5399,13 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
@@ -5392,13 +5413,13 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
@@ -5406,25 +5427,25 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
@@ -5432,13 +5453,13 @@
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
@@ -5446,13 +5467,13 @@
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8" t="s">
@@ -5460,13 +5481,13 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
@@ -5474,13 +5495,13 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
@@ -5488,13 +5509,13 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
@@ -5502,13 +5523,13 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8" t="s">
@@ -5516,13 +5537,13 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
@@ -5530,13 +5551,13 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8" t="s">
@@ -5544,13 +5565,13 @@
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
@@ -5558,25 +5579,25 @@
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
@@ -5584,13 +5605,13 @@
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
@@ -5598,13 +5619,13 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
@@ -5612,13 +5633,13 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
@@ -5626,7 +5647,7 @@
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +5698,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>22</v>
@@ -5736,55 +5757,55 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -5792,55 +5813,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$80</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="298">
   <si>
     <t>共通設定</t>
   </si>
@@ -774,9 +774,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>対象サーバ</t>
@@ -902,10 +899,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>* Oracleデータベースの構成情報を採取します。</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1210,10 +1203,6 @@
     <t>account.Oracle.Test.port     = 1521</t>
   </si>
   <si>
-    <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(*)</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1226,6 +1215,40 @@
   </si>
   <si>
     <t>Oracle</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Oracle\config_oracle.groovy -rp {Redmineプロジェクト名}</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1327,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1519,6 +1542,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1528,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1668,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1952,9 +1994,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2027,7 +2069,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -2046,7 +2088,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -2081,7 +2123,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -2118,7 +2160,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -2190,7 +2232,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -2209,7 +2251,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2244,12 +2286,14 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2265,12 +2309,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C17" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2286,12 +2332,14 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C18" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2307,12 +2355,14 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C19" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>249</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>250</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -2330,10 +2380,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2349,12 +2399,14 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C21" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2372,10 +2424,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -2393,10 +2445,10 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -2414,10 +2466,10 @@
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2435,10 +2487,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2472,7 +2524,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -2833,7 +2885,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -2870,7 +2922,7 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -2907,7 +2959,7 @@
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -2942,7 +2994,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -2979,7 +3031,7 @@
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -3015,7 +3067,7 @@
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -3034,7 +3086,7 @@
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3053,7 +3105,7 @@
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -3087,7 +3139,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -3124,7 +3176,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -3161,7 +3213,7 @@
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -3195,7 +3247,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -3232,7 +3284,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -3269,7 +3321,7 @@
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -3304,7 +3356,7 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -3323,7 +3375,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -3360,7 +3412,7 @@
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -3395,7 +3447,7 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -3431,50 +3483,124 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="20"/>
+      <c r="C76" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
       <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
+      <c r="C77" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="20"/>
       <c r="O77" s="30"/>
     </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+    </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>291</v>
-      </c>
-      <c r="C79" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="35" t="s">
         <v>293</v>
+      </c>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="30"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3911,7 +4037,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$80:$C$81</xm:f>
+            <xm:f>利用手順!$C$84:$C$85</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>

--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="364">
   <si>
     <t>共通設定</t>
   </si>
@@ -1250,6 +1250,314 @@
   <si>
     <t>(*)</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【一般情報】</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>インスタンス名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベースユニーク名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBブロックサイズ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンパチブルバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース製品名</t>
+    <rPh sb="6" eb="9">
+      <t>セイヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エディション</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>クラスターデータベース</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>クラスターインスタンス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カレントSCN</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>RAC情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>オープンモード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>フォースロギング</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログモード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アーカイバー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>採取SQL実行ログ</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ホスト構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>言語・ロケール</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリプール割当て</t>
+    <rPh sb="6" eb="8">
+      <t>ワリア</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージサマリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>トータルCPU数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>物理メモリMB</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プラットフォーム名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パラメータ：nls_territory</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_language</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_nchar_characterset</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_length_semantics</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_characterset</t>
+  </si>
+  <si>
+    <t>パラメータ：memory_management</t>
+  </si>
+  <si>
+    <t>パラメータ：statistics_level</t>
+  </si>
+  <si>
+    <t>パラメータ：sga_target</t>
+  </si>
+  <si>
+    <t>パラメータ：sga_max_size</t>
+  </si>
+  <si>
+    <t>パラメータ：memory_target</t>
+  </si>
+  <si>
+    <t>パラメータ：memory_max_target</t>
+  </si>
+  <si>
+    <t>パラメータ：pga_aggregate_target</t>
+  </si>
+  <si>
+    <t>SGA データベースバッファー</t>
+  </si>
+  <si>
+    <t>SGA 固定サイズ</t>
+  </si>
+  <si>
+    <t>SGA REDOバッファー</t>
+  </si>
+  <si>
+    <t>SGA 可変サイズ</t>
+  </si>
+  <si>
+    <t>パラメータ：db_cache_size</t>
+  </si>
+  <si>
+    <t>パラメータ：shared_pool_size</t>
+  </si>
+  <si>
+    <t>パラメータ：streams_pool_size</t>
+  </si>
+  <si>
+    <t>パラメータ：large_pool_size</t>
+  </si>
+  <si>
+    <t>パラメータ：java_pool_size</t>
+  </si>
+  <si>
+    <t>REDOログサイズ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>REDOログ数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>REDOログミラーリング</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パラメータ：db_recovery_file_dest</t>
+  </si>
+  <si>
+    <t>パラメータ：db_recovery_file_dest_size</t>
+  </si>
+  <si>
+    <t>パラメータ：default_tbs_type</t>
+  </si>
+  <si>
+    <t>パラメータ：default_permanent_tablespace</t>
+  </si>
+  <si>
+    <t>パラメータ：default_temp_tablespace</t>
+  </si>
+  <si>
+    <t>パラメータ：spfile</t>
+  </si>
+  <si>
+    <t>パラメータ：diagnostic_dest</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,16 +1972,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1996,7 +2307,7 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2560,18 +2871,18 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -3483,7 +3794,7 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="33" t="s">
         <v>291</v>
       </c>
       <c r="D76" s="30"/>
@@ -3502,7 +3813,7 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>292</v>
       </c>
       <c r="D77" s="19"/>
@@ -3521,7 +3832,7 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
-      <c r="C78" s="35"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -3538,7 +3849,7 @@
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="33" t="s">
         <v>293</v>
       </c>
       <c r="D79" s="30"/>
@@ -3557,7 +3868,7 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="34" t="s">
         <v>295</v>
       </c>
       <c r="D80" s="19"/>
@@ -3621,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3640,18 +3951,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -4503,1283 +4814,1665 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK85"/>
+  <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A40" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>65</v>
+      <c r="B4" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="8"/>
+      <c r="B38" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="8"/>
+      <c r="B40" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="B45" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="B47" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="8"/>
+      <c r="B49" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="8"/>
+      <c r="B61" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="8"/>
+      <c r="B68" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="8"/>
+      <c r="B69" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="8"/>
+      <c r="B70" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B71" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="E71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G71" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B72" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G72" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B73" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="E73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G73" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B74" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="E74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G74" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B75" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="E75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G75" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B76" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="E76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G76" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B77" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="E77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G77" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B78" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="E78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G78" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B79" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="E79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G79" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B80" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="E80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G80" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B81" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="E81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G81" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B82" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="E82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G82" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B83" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="E83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G83" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B84" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="E84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G84" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B85" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="E85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G85" s="12" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -3932,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4816,9 +4816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4826,9 +4824,9 @@
     <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
@@ -4875,13 +4873,13 @@
         <v>65</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4896,10 +4894,10 @@
         <v>117</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>118</v>
       </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
@@ -4912,12 +4910,12 @@
       <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4931,12 +4929,12 @@
       <c r="D7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4950,12 +4948,12 @@
       <c r="D8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4969,12 +4967,12 @@
       <c r="D9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4988,12 +4986,12 @@
       <c r="D10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5007,12 +5005,12 @@
       <c r="D11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5026,12 +5024,12 @@
       <c r="D12" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5045,12 +5043,12 @@
       <c r="D13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5064,12 +5062,12 @@
       <c r="D14" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5083,12 +5081,12 @@
       <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5102,12 +5100,12 @@
       <c r="D16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5121,12 +5119,12 @@
       <c r="D17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="G17" s="8" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5140,12 +5138,12 @@
       <c r="D18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5159,12 +5157,12 @@
       <c r="D19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5178,12 +5176,12 @@
       <c r="D20" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="G20" s="8" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5197,12 +5195,12 @@
       <c r="D21" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="G21" s="8" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5216,12 +5214,12 @@
       <c r="D22" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5235,12 +5233,12 @@
       <c r="D23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5254,12 +5252,12 @@
       <c r="D24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G24" s="8" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5274,10 +5272,10 @@
         <v>155</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>156</v>
       </c>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
@@ -5290,12 +5288,12 @@
       <c r="D26" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="G26" s="8" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5309,12 +5307,12 @@
       <c r="D27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G27" s="8" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5328,12 +5326,12 @@
       <c r="D28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="G28" s="8" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5347,12 +5345,12 @@
       <c r="D29" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5366,12 +5364,12 @@
       <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="G30" s="8" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5386,10 +5384,10 @@
         <v>165</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
@@ -5402,12 +5400,12 @@
       <c r="D32" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="G32" s="8" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5421,12 +5419,12 @@
       <c r="D33" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5440,12 +5438,12 @@
       <c r="D34" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="G34" s="8" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5459,12 +5457,12 @@
       <c r="D35" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="G35" s="8" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5478,12 +5476,12 @@
       <c r="D36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="G36" s="8" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5498,10 +5496,10 @@
         <v>176</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>177</v>
       </c>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
@@ -5514,12 +5512,12 @@
       <c r="D38" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="G38" s="8" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5533,12 +5531,12 @@
       <c r="D39" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="G39" s="8" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5552,12 +5550,12 @@
       <c r="D40" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="G40" s="8" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5571,12 +5569,12 @@
       <c r="D41" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="G41" s="8" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5590,12 +5588,12 @@
       <c r="D42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="G42" s="8" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5609,12 +5607,12 @@
       <c r="D43" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="G43" s="8" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5628,12 +5626,12 @@
       <c r="D44" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="G44" s="8" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5647,12 +5645,12 @@
       <c r="D45" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="G45" s="8" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5666,12 +5664,12 @@
       <c r="D46" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="G46" s="8" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5685,12 +5683,12 @@
       <c r="D47" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="G47" s="8" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5704,12 +5702,12 @@
       <c r="D48" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5724,10 +5722,10 @@
         <v>200</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>201</v>
       </c>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
@@ -5740,12 +5738,12 @@
       <c r="D50" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="G50" s="8" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5759,12 +5757,12 @@
       <c r="D51" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="G51" s="8" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5778,12 +5776,12 @@
       <c r="D52" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="G52" s="8" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5797,12 +5795,12 @@
       <c r="D53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="G53" s="8" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5816,12 +5814,12 @@
       <c r="D54" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="G54" s="8" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5836,10 +5834,10 @@
         <v>212</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>213</v>
       </c>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
@@ -5852,12 +5850,12 @@
       <c r="D56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="G56" s="8" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5871,12 +5869,12 @@
       <c r="D57" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="G57" s="8" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5890,12 +5888,12 @@
       <c r="D58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="G58" s="8" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5909,12 +5907,12 @@
       <c r="D59" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="G59" s="8" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5928,12 +5926,12 @@
       <c r="D60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="G60" s="8" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5947,12 +5945,12 @@
       <c r="D61" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="G61" s="8" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5966,12 +5964,12 @@
       <c r="D62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="G62" s="8" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5985,12 +5983,12 @@
       <c r="D63" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="G63" s="8" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6004,12 +6002,12 @@
       <c r="D64" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="G64" s="8" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6023,12 +6021,12 @@
       <c r="D65" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="G65" s="8" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6043,10 +6041,10 @@
         <v>234</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>235</v>
       </c>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
@@ -6059,12 +6057,12 @@
       <c r="D67" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="G67" s="8" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6078,12 +6076,12 @@
       <c r="D68" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="G68" s="8" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6097,12 +6095,12 @@
       <c r="D69" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="G69" s="8" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6116,12 +6114,12 @@
       <c r="D70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="G70" s="8" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6138,13 +6136,13 @@
         <v>71</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="16" t="s">
         <v>73</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6161,13 +6159,13 @@
         <v>74</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="F72" s="16" t="s">
         <v>76</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6184,13 +6182,13 @@
         <v>77</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="F73" s="16" t="s">
         <v>79</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6207,13 +6205,13 @@
         <v>80</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="F74" s="16" t="s">
         <v>82</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6230,13 +6228,13 @@
         <v>83</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="F75" s="16" t="s">
         <v>85</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6253,13 +6251,13 @@
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="F76" s="16" t="s">
         <v>88</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6276,13 +6274,13 @@
         <v>89</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="F77" s="17" t="s">
         <v>91</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6299,13 +6297,13 @@
         <v>92</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="F78" s="16" t="s">
         <v>94</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6322,13 +6320,13 @@
         <v>96</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="F79" s="17" t="s">
         <v>98</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6345,13 +6343,13 @@
         <v>99</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6368,13 +6366,13 @@
         <v>102</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6391,13 +6389,13 @@
         <v>105</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="F82" s="16" t="s">
         <v>107</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6414,13 +6412,13 @@
         <v>108</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="F83" s="16" t="s">
         <v>110</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6437,13 +6435,13 @@
         <v>111</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="F84" s="17" t="s">
         <v>113</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6460,13 +6458,13 @@
         <v>114</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="F85" s="12" t="s">
         <v>116</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/template/Oracle/blank_Oracle設定チェックシート.xlsx
+++ b/template/Oracle/blank_Oracle設定チェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="365">
   <si>
     <t>共通設定</t>
   </si>
@@ -211,9 +211,6 @@
     <t>sumstorage.redologs</t>
   </si>
   <si>
-    <t>Oracle</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>dbcomps</t>
-  </si>
-  <si>
-    <t>データベース構成</t>
   </si>
   <si>
     <t>'DBA_REGISTRY' の検索</t>
@@ -1558,13 +1552,27 @@
   </si>
   <si>
     <t>パラメータ：diagnostic_dest</t>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>_redmine:ソフトウェア</t>
+  </si>
+  <si>
+    <t>データベース機能</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1613,8 +1621,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,6 +1679,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1864,15 +1900,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1981,6 +2020,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1988,7 +2033,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="出力" xfId="2" builtinId="21"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
@@ -2343,7 +2389,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -2380,7 +2426,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -2399,7 +2445,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -2434,7 +2480,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -2471,7 +2517,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -2506,7 +2552,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2543,7 +2589,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -2562,7 +2608,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2598,13 +2644,13 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2621,13 +2667,13 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2644,13 +2690,13 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2667,13 +2713,13 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -2691,10 +2737,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2711,13 +2757,13 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2735,10 +2781,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -2756,10 +2802,10 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -2777,10 +2823,10 @@
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2798,10 +2844,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2835,7 +2881,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -2871,18 +2917,18 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -3196,7 +3242,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -3233,7 +3279,7 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -3270,7 +3316,7 @@
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -3305,7 +3351,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -3342,7 +3388,7 @@
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -3378,7 +3424,7 @@
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -3397,7 +3443,7 @@
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3416,7 +3462,7 @@
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -3450,7 +3496,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -3487,7 +3533,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -3524,7 +3570,7 @@
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -3558,7 +3604,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -3595,7 +3641,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -3632,7 +3678,7 @@
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -3667,7 +3713,7 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -3686,7 +3732,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -3723,7 +3769,7 @@
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -3758,7 +3804,7 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -3795,7 +3841,7 @@
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
@@ -3814,7 +3860,7 @@
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -3850,7 +3896,7 @@
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
@@ -3869,7 +3915,7 @@
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -3903,15 +3949,15 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3951,18 +3999,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -4338,7 +4386,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -4368,9 +4416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4497,60 +4543,66 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6" t="s">
-        <v>58</v>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
@@ -4740,16 +4792,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4757,16 +4809,16 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4816,7 +4868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4864,55 +4918,55 @@
         <v>25</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
@@ -4921,17 +4975,17 @@
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>22</v>
@@ -4940,17 +4994,17 @@
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>22</v>
@@ -4959,17 +5013,17 @@
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>22</v>
@@ -4978,17 +5032,17 @@
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -4997,17 +5051,17 @@
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -5016,17 +5070,17 @@
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -5035,17 +5089,17 @@
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -5054,17 +5108,17 @@
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -5073,36 +5127,40 @@
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="B16" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -5111,17 +5169,17 @@
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -5130,17 +5188,17 @@
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -5149,17 +5207,17 @@
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -5168,17 +5226,17 @@
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -5187,17 +5245,17 @@
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -5206,17 +5264,17 @@
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -5225,17 +5283,17 @@
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -5244,17 +5302,17 @@
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>318</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -5263,53 +5321,53 @@
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -5318,17 +5376,17 @@
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -5337,17 +5395,17 @@
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -5356,17 +5414,17 @@
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -5375,53 +5433,53 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -5430,17 +5488,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -5449,17 +5507,17 @@
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>22</v>
@@ -5468,17 +5526,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>22</v>
@@ -5487,53 +5545,53 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>22</v>
@@ -5542,17 +5600,17 @@
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>22</v>
@@ -5561,17 +5619,17 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>22</v>
@@ -5580,17 +5638,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>22</v>
@@ -5599,17 +5657,17 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>22</v>
@@ -5618,17 +5676,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>22</v>
@@ -5637,17 +5695,17 @@
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>22</v>
@@ -5656,17 +5714,17 @@
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -5675,17 +5733,17 @@
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>22</v>
@@ -5694,17 +5752,17 @@
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>22</v>
@@ -5713,53 +5771,53 @@
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>22</v>
@@ -5768,17 +5826,17 @@
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>22</v>
@@ -5787,17 +5845,17 @@
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>22</v>
@@ -5806,17 +5864,17 @@
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>22</v>
@@ -5825,53 +5883,53 @@
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G55" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>357</v>
+        <v>211</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>22</v>
@@ -5880,17 +5938,17 @@
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>22</v>
@@ -5899,17 +5957,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>22</v>
@@ -5918,17 +5976,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>22</v>
@@ -5937,17 +5995,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>22</v>
@@ -5956,17 +6014,17 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>22</v>
@@ -5975,17 +6033,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>22</v>
@@ -5994,17 +6052,17 @@
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>22</v>
@@ -6013,17 +6071,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>354</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>22</v>
@@ -6032,53 +6090,53 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G66" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>22</v>
@@ -6087,17 +6145,17 @@
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>22</v>
@@ -6106,40 +6164,36 @@
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="A71" s="8"/>
       <c r="B71" s="35" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>73</v>
+        <v>237</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>22</v>
@@ -6147,22 +6201,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>22</v>
@@ -6170,22 +6224,22 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>22</v>
@@ -6193,22 +6247,22 @@
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>22</v>
@@ -6216,22 +6270,22 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>22</v>
@@ -6239,22 +6293,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>22</v>
@@ -6262,22 +6316,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>22</v>
@@ -6285,22 +6339,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>22</v>
@@ -6308,22 +6362,22 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D79" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>22</v>
@@ -6331,22 +6385,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>22</v>
@@ -6354,22 +6408,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>22</v>
@@ -6377,22 +6431,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>22</v>
@@ -6400,22 +6454,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>22</v>
@@ -6423,22 +6477,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>22</v>
@@ -6446,22 +6500,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>22</v>
@@ -6515,7 +6569,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>22</v>
@@ -6574,55 +6628,55 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -6630,55 +6684,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
